--- a/data/trans_bre/POLIPATOLOGIA_Lim_2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/POLIPATOLOGIA_Lim_2-Provincia-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>17.42121412644137</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8.775528602427682</v>
+        <v>8.775528602427679</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>1.037370599892584</v>
@@ -627,7 +627,7 @@
         <v>1.205760060844309</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5624325300821821</v>
+        <v>0.5624325300821819</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>7.490662104777315</v>
+        <v>8.000332299438288</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>10.27146508731719</v>
+        <v>10.22607776089095</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3.693337544889399</v>
+        <v>3.328285283899905</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.4394935989398412</v>
+        <v>0.4546147500163089</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.5810546335797445</v>
+        <v>0.5693850766041427</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1790688805443416</v>
+        <v>0.1691698898052268</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>21.77757332781791</v>
+        <v>22.62258464758459</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>25.01839954281564</v>
+        <v>23.76212803972118</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.06226894943553</v>
+        <v>13.78054385350826</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.877623256938835</v>
+        <v>1.970291165703751</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>2.181916707796698</v>
+        <v>2.040613078203891</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.034340945242032</v>
+        <v>1.081605860514856</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>13.50157304860778</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>16.29222983801896</v>
+        <v>16.29222983801895</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.6487868548962986</v>
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.414146217313525</v>
+        <v>5.893739423779881</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>8.186418129028516</v>
+        <v>7.849761297956695</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11.14565622928324</v>
+        <v>11.50315241805336</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.3017489636114493</v>
+        <v>0.2857288574256477</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5416089094942573</v>
+        <v>0.495820386855773</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6390065465672441</v>
+        <v>0.6791968178094295</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>17.81635480057381</v>
+        <v>16.93788943917687</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>18.12450308688018</v>
+        <v>18.17042324006247</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>21.54854843070075</v>
+        <v>20.86237422131454</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.158538053893495</v>
+        <v>1.085468035315787</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.632508021180648</v>
+        <v>1.579390891331929</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.897018883981409</v>
+        <v>1.795037472913934</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.591743836191734</v>
+        <v>-0.6064231723559282</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>4.988513089887099</v>
+        <v>5.585954140020462</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3.665530357469831</v>
+        <v>4.314376224058788</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.02760713358188533</v>
+        <v>-0.03317969038199798</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3530183164485473</v>
+        <v>0.3875547672623328</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1316922890000849</v>
+        <v>0.1597844379402988</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>12.47722690555174</v>
+        <v>13.0476428631748</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>17.09863555767887</v>
+        <v>17.31794145802366</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>15.07603848987153</v>
+        <v>15.45103507802828</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>0.7061656956757696</v>
+        <v>0.7488200786396728</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.825032877895872</v>
+        <v>1.792966714491357</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.7491311604825501</v>
+        <v>0.8035156282598949</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>14.62984705376611</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10.05918305783566</v>
+        <v>10.05918305783565</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>1.138593359140428</v>
@@ -873,7 +873,7 @@
         <v>0.8809137154409148</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4222669289755732</v>
+        <v>0.4222669289755728</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.08620140901486</v>
+        <v>10.26099870713254</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.712425838159099</v>
+        <v>8.359146333934222</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.463942845973495</v>
+        <v>2.985564762867095</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.5353301508760749</v>
+        <v>0.5856435044373313</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.4385366463382291</v>
+        <v>0.43762572471029</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1190884760593717</v>
+        <v>0.09856199054705635</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>22.66641545246948</v>
+        <v>23.00557384879914</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>20.21542514809244</v>
+        <v>21.01454358650442</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>16.5512388645391</v>
+        <v>16.1682381683278</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.836714498982847</v>
+        <v>2.014077207609303</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.48405357939628</v>
+        <v>1.56814762686925</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.8393113311941488</v>
+        <v>0.8076591172904833</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>15.91621247087177</v>
+        <v>15.66066813608454</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>6.523495563603299</v>
+        <v>5.968368842823621</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>7.387950854885797</v>
+        <v>8.358664531910625</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>0.6004040386028254</v>
+        <v>0.5813384284471033</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3385816677939439</v>
+        <v>0.3039942893254546</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4522034804310486</v>
+        <v>0.5090092965747733</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>34.28572611021157</v>
+        <v>33.45324670750823</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>22.05966602796322</v>
+        <v>21.16855156190335</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>19.57726888035961</v>
+        <v>19.65585205471633</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2.035668013844714</v>
+        <v>1.92568745977713</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.909100267864695</v>
+        <v>1.793004249765107</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.990224079386989</v>
+        <v>1.964968855827044</v>
       </c>
     </row>
     <row r="19">
@@ -1028,7 +1028,7 @@
         <v>8.539073200644545</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>12.25303591667099</v>
+        <v>12.25303591667096</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.4415917618843894</v>
@@ -1037,7 +1037,7 @@
         <v>0.4627121211555752</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4923774727832074</v>
+        <v>0.4923774727832064</v>
       </c>
     </row>
     <row r="20">
@@ -1048,22 +1048,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.600850922170448</v>
+        <v>2.715757684582692</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.15334044761241</v>
+        <v>1.775022466281159</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>5.680883790386333</v>
+        <v>5.829708157307023</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.07500288314791813</v>
+        <v>0.093863162029148</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.04598785006897887</v>
+        <v>0.07863430198013022</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2078979235842996</v>
+        <v>0.2126518525748602</v>
       </c>
     </row>
     <row r="21">
@@ -1074,22 +1074,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>17.47608535256232</v>
+        <v>17.93372715074056</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>15.6169627726279</v>
+        <v>16.3941370969389</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>18.13886076236516</v>
+        <v>18.45659542747515</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8631082532434572</v>
+        <v>0.9280259479407585</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.021425048345358</v>
+        <v>1.108821183664972</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.8533765459773685</v>
+        <v>0.8646506389854521</v>
       </c>
     </row>
     <row r="22">
@@ -1110,7 +1110,7 @@
         <v>7.210689586283989</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>21.12690676260127</v>
+        <v>21.12690676260126</v>
       </c>
       <c r="F22" s="6" t="n">
         <v>0.74051481696485</v>
@@ -1119,7 +1119,7 @@
         <v>0.5101746219827434</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9421787531168023</v>
+        <v>0.9421787531168021</v>
       </c>
     </row>
     <row r="23">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>7.325162090704731</v>
+        <v>7.013227101519334</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>3.023547397078748</v>
+        <v>2.95665644570958</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>16.21963214489761</v>
+        <v>16.35086757108845</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.4069633956178207</v>
+        <v>0.3824287987474613</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.1703734095130584</v>
+        <v>0.1618264199325178</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6482204813546075</v>
+        <v>0.6496963912924159</v>
       </c>
     </row>
     <row r="24">
@@ -1156,22 +1156,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>16.20549584481433</v>
+        <v>16.09284891424323</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>11.60176084792633</v>
+        <v>11.27896637658525</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>25.64868760268284</v>
+        <v>25.33460176983259</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.221218597304618</v>
+        <v>1.1736022888329</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.9461836424922554</v>
+        <v>0.9095058279141942</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.305601667121063</v>
+        <v>1.2858582493019</v>
       </c>
     </row>
     <row r="25">
@@ -1192,7 +1192,7 @@
         <v>7.973471507608767</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>12.92539411871141</v>
+        <v>12.92539411871142</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.673947340584415</v>
@@ -1212,22 +1212,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>5.329570084624426</v>
+        <v>5.217747357030375</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>3.956248733414502</v>
+        <v>4.318208140656607</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9.563050792701274</v>
+        <v>9.663186507835743</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3242868805210932</v>
+        <v>0.3414450654026442</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.2312705882693678</v>
+        <v>0.2403720034639087</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.7062107986705014</v>
+        <v>0.6921428096780078</v>
       </c>
     </row>
     <row r="27">
@@ -1238,22 +1238,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>13.41875594211477</v>
+        <v>13.4329051820737</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>12.30351819067546</v>
+        <v>12.4390610829453</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>16.22306022155642</v>
+        <v>16.26484903164541</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.101132043116711</v>
+        <v>1.111381385991169</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.8871885426192078</v>
+        <v>0.9059083553336077</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.553862712455378</v>
+        <v>1.574353205297953</v>
       </c>
     </row>
     <row r="28">
@@ -1274,7 +1274,7 @@
         <v>10.84831517334078</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>14.21944349234845</v>
+        <v>14.21944349234846</v>
       </c>
       <c r="F28" s="6" t="n">
         <v>0.716799690448169</v>
@@ -1283,7 +1283,7 @@
         <v>0.7269700004991121</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.7836904203883435</v>
+        <v>0.7836904203883437</v>
       </c>
     </row>
     <row r="29">
@@ -1294,22 +1294,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>10.05703315403035</v>
+        <v>10.15803503114669</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>8.8924393673193</v>
+        <v>8.883470608041645</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>12.29158112145586</v>
+        <v>12.28102926966568</v>
       </c>
       <c r="F29" s="6" t="n">
-        <v>0.5531039830019396</v>
+        <v>0.5582352641071018</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>0.551352596788361</v>
+        <v>0.5577487615565417</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6458429313262812</v>
+        <v>0.6373447632403265</v>
       </c>
     </row>
     <row r="30">
@@ -1320,22 +1320,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>14.35528733689984</v>
+        <v>14.44510735750298</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>12.91805842303818</v>
+        <v>12.88855108982234</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>15.99644098765056</v>
+        <v>15.96871671590727</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>0.8892364272078567</v>
+        <v>0.9009819675540907</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.9120599177522103</v>
+        <v>0.9038514194625049</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.9394460355841453</v>
+        <v>0.9268936167470478</v>
       </c>
     </row>
     <row r="31">
